--- a/penguji/db_nilai.xlsx
+++ b/penguji/db_nilai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\OneDrive\Documents\WEBSITE\uktpagarnusa\penguji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3046CBAB-B35C-4B29-8FE1-112A9FDBE31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0D6527-94E1-4E9C-83BF-4FF0B8CD238D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{C90172FA-9549-4883-B5C1-C1958433D4C2}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
